--- a/data-raw/SusitnaEG sonar.xlsx
+++ b/data-raw/SusitnaEG sonar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEED5D-5E5A-4A73-BEBE-EDCE6178A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A6DBD-98AA-46BA-AA4C-3DA60B66641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lake Creek sonar" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>NoInfo</t>
+  </si>
+  <si>
+    <t>1/10/2024 teams message from Nick</t>
+  </si>
+  <si>
+    <t>2/14/2024 teams message from Logan. Mixed methodology (&gt; 500 till June 1 - July 10, July 11 - 18 Nick removed fish in groups assuming they were sockeye).</t>
   </si>
 </sst>
 </file>
@@ -109,9 +115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72310F56-6D0C-4B66-9CDB-566FDD452153}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +698,25 @@
       </c>
       <c r="E46" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>3453</v>
+      </c>
+      <c r="C47" s="1">
+        <f>SQRT(30228.93)</f>
+        <v>173.86468876686837</v>
+      </c>
+      <c r="D47" s="1">
+        <f>C47/B47</f>
+        <v>5.0351777806796519E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +727,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B97F3E-DAB1-45AD-B255-901521FFFF75}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +742,7 @@
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,6 +1029,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
